--- a/output/StructureDefinition-org-alias-type.xlsx
+++ b/output/StructureDefinition-org-alias-type.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-healthcare-directory/StructureDefinition/org-alias-type</t>
+    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/org-alias-type</t>
   </si>
   <si>
     <t>Version</t>

--- a/output/StructureDefinition-org-alias-type.xlsx
+++ b/output/StructureDefinition-org-alias-type.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory/StructureDefinition/org-alias-type</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/org-alias-type</t>
   </si>
   <si>
     <t>Version</t>

--- a/output/StructureDefinition-org-alias-type.xlsx
+++ b/output/StructureDefinition-org-alias-type.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-excahnge/StructureDefinition/org-alias-type</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/org-alias-type</t>
   </si>
   <si>
     <t>Version</t>
